--- a/public/template/nha san xuat.xlsx
+++ b/public/template/nha san xuat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Desktop\nhập liệu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Good\Desktop\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mô tả</t>
   </si>
@@ -35,19 +35,40 @@
     <t>Quốc gia</t>
   </si>
   <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Yamaha</t>
-  </si>
-  <si>
-    <t>Larose</t>
-  </si>
-  <si>
-    <t>Valve</t>
-  </si>
-  <si>
     <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>Beful</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Trung Quốc</t>
+  </si>
+  <si>
+    <t>Pháp</t>
+  </si>
+  <si>
+    <t>Mỹ</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Đài loan</t>
+  </si>
+  <si>
+    <t>Luxury</t>
+  </si>
+  <si>
+    <t>Hàn Quốc</t>
   </si>
 </sst>
 </file>
@@ -421,7 +442,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +465,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -452,35 +473,43 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
